--- a/Code/Results/Cases/Case_2_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.54845550106786</v>
+        <v>13.98254127752276</v>
       </c>
       <c r="C2">
-        <v>11.56279050294317</v>
+        <v>9.850571624199638</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.191520647657754</v>
+        <v>12.19072082085392</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.078039578938899</v>
+        <v>3.631538631868254</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.19094072871242</v>
+        <v>22.01393554855276</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.279132522150885</v>
+        <v>10.02503709274763</v>
       </c>
       <c r="M2">
-        <v>11.35811521651206</v>
+        <v>14.35175561457324</v>
       </c>
       <c r="N2">
-        <v>12.23938810975587</v>
+        <v>17.86030925221476</v>
       </c>
       <c r="O2">
-        <v>14.22294180191116</v>
+        <v>21.77956766534952</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.30610291179633</v>
+        <v>13.54443789954035</v>
       </c>
       <c r="C3">
-        <v>11.06164250730769</v>
+        <v>9.65440839314342</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.276642030627205</v>
+        <v>12.22798948911169</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.082919199486952</v>
+        <v>3.633417501913303</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.36945578599754</v>
+        <v>22.12079238304468</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.194048611188525</v>
+        <v>10.03276545845033</v>
       </c>
       <c r="M3">
-        <v>10.84608652730641</v>
+        <v>14.26592772848859</v>
       </c>
       <c r="N3">
-        <v>12.36460780554161</v>
+        <v>17.90679865464352</v>
       </c>
       <c r="O3">
-        <v>14.13732396304408</v>
+        <v>21.85062232810751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.49749996223263</v>
+        <v>13.26978232397225</v>
       </c>
       <c r="C4">
-        <v>10.74161837727311</v>
+        <v>9.530766744907659</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.33132952620648</v>
+        <v>12.25218772206988</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.086010503836452</v>
+        <v>3.634632882231919</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.4910034194707</v>
+        <v>22.19097896259568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.144127742618226</v>
+        <v>10.03890817888998</v>
       </c>
       <c r="M4">
-        <v>10.52260612508581</v>
+        <v>14.21497488706972</v>
       </c>
       <c r="N4">
-        <v>12.44506620097816</v>
+        <v>17.93715574901138</v>
       </c>
       <c r="O4">
-        <v>14.09957610226012</v>
+        <v>21.89964870356809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.15641106560312</v>
+        <v>13.15660507975945</v>
       </c>
       <c r="C5">
-        <v>10.60821280336279</v>
+        <v>9.479619075653263</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.354221946642076</v>
+        <v>12.26238014655682</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.087294693931121</v>
+        <v>3.635143734427384</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.54339739918253</v>
+        <v>22.2207303309112</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.124379002492772</v>
+        <v>10.0417633183369</v>
       </c>
       <c r="M5">
-        <v>10.38867471234954</v>
+        <v>14.19466631171338</v>
       </c>
       <c r="N5">
-        <v>12.47874302934393</v>
+        <v>17.94998311483081</v>
       </c>
       <c r="O5">
-        <v>14.08779413851177</v>
+        <v>21.92098084310432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.09907253511617</v>
+        <v>13.1377416380488</v>
       </c>
       <c r="C6">
-        <v>10.58588351728297</v>
+        <v>9.471081220379739</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.358059804364691</v>
+        <v>12.26409263166539</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.087509424759707</v>
+        <v>3.635229503146026</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.55226635120544</v>
+        <v>22.22573994015199</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.121135930662922</v>
+        <v>10.04225868177832</v>
       </c>
       <c r="M6">
-        <v>10.36631367240255</v>
+        <v>14.19132203497025</v>
       </c>
       <c r="N6">
-        <v>12.48438851333231</v>
+        <v>17.95214069232513</v>
       </c>
       <c r="O6">
-        <v>14.08605137247805</v>
+        <v>21.92460465554918</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.49294687241498</v>
+        <v>13.26826081468773</v>
       </c>
       <c r="C7">
-        <v>10.73983119183204</v>
+        <v>9.530079981860498</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.331635807216491</v>
+        <v>12.25232383764402</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.086027723168446</v>
+        <v>3.63463970863678</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.49169861129559</v>
+        <v>22.19137554577798</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.143858984099182</v>
+        <v>10.03894525870098</v>
       </c>
       <c r="M7">
-        <v>10.52080817355676</v>
+        <v>14.2146991349372</v>
       </c>
       <c r="N7">
-        <v>12.44551678854724</v>
+        <v>17.93732689343958</v>
       </c>
       <c r="O7">
-        <v>14.09940280066394</v>
+        <v>21.89993092146603</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.12955934114169</v>
+        <v>13.83275551104719</v>
       </c>
       <c r="C8">
-        <v>11.39260827882995</v>
+        <v>9.783622040489554</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.220366148576378</v>
+        <v>12.20329855676654</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.079702634368792</v>
+        <v>3.632173679822512</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.24992783807249</v>
+        <v>22.04982946705534</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.249320693933825</v>
+        <v>10.02741212231032</v>
       </c>
       <c r="M8">
-        <v>11.18355271673874</v>
+        <v>14.32180966824151</v>
       </c>
       <c r="N8">
-        <v>12.28181647974544</v>
+        <v>17.87596314532059</v>
       </c>
       <c r="O8">
-        <v>14.19027092941812</v>
+        <v>21.802944492379</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.97843554175545</v>
+        <v>14.88803830808115</v>
       </c>
       <c r="C9">
-        <v>12.5712497569129</v>
+        <v>10.25375427240892</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.021513696606483</v>
+        <v>12.11756078185608</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.068029708771036</v>
+        <v>3.62782553665321</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.8773088022774</v>
+        <v>21.80860841866458</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.47402586563426</v>
+        <v>10.01585895465579</v>
       </c>
       <c r="M9">
-        <v>12.42518735794816</v>
+        <v>14.54497074970486</v>
       </c>
       <c r="N9">
-        <v>11.98961612719994</v>
+        <v>17.76997133928864</v>
       </c>
       <c r="O9">
-        <v>14.49127447924826</v>
+        <v>21.65576134982656</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.85574063537766</v>
+        <v>15.62369069832963</v>
       </c>
       <c r="C10">
-        <v>13.37144696119876</v>
+        <v>10.58054290847376</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.887415986180484</v>
+        <v>12.06086185793745</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.059862453091705</v>
+        <v>3.624925211696802</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.6754836682665</v>
+        <v>21.65360101590003</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.64928810051492</v>
+        <v>10.01407871058138</v>
       </c>
       <c r="M10">
-        <v>13.48177598410969</v>
+        <v>14.71590591531043</v>
       </c>
       <c r="N10">
-        <v>11.79324298535916</v>
+        <v>17.70078999062576</v>
       </c>
       <c r="O10">
-        <v>14.79371806750791</v>
+        <v>21.57406833397363</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.66381720898409</v>
+        <v>15.94828492514819</v>
       </c>
       <c r="C11">
-        <v>13.72064528784076</v>
+        <v>10.72476100525097</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.8290744405849</v>
+        <v>12.03642431180536</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.056227156002684</v>
+        <v>3.623669019036333</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.60169171643825</v>
+        <v>21.58792196459065</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.731065157434999</v>
+        <v>10.0147160522342</v>
       </c>
       <c r="M11">
-        <v>13.93793053192141</v>
+        <v>14.79495841089427</v>
       </c>
       <c r="N11">
-        <v>11.70807859475189</v>
+        <v>17.67119384385566</v>
       </c>
       <c r="O11">
-        <v>14.95012917881226</v>
+        <v>21.54268940383227</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.96328561279641</v>
+        <v>16.06964907397194</v>
       </c>
       <c r="C12">
-        <v>13.85071554651415</v>
+        <v>10.7787034027041</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.80737059119913</v>
+        <v>12.02736455681903</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.054861321438821</v>
+        <v>3.623202367174917</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.57655424416769</v>
+        <v>21.56374756406458</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.762313005077019</v>
+        <v>10.01516455393859</v>
       </c>
       <c r="M12">
-        <v>14.10717297465469</v>
+        <v>14.82505997193758</v>
       </c>
       <c r="N12">
-        <v>11.67644759633041</v>
+        <v>17.66025535200775</v>
       </c>
       <c r="O12">
-        <v>15.01214711424416</v>
+        <v>21.53164189224698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89907913126162</v>
+        <v>16.04358175682463</v>
       </c>
       <c r="C13">
-        <v>13.82279923437179</v>
+        <v>10.76711621142754</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.812027500068335</v>
+        <v>12.02930710964843</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.055155011398721</v>
+        <v>3.623302467598631</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.58183971063041</v>
+        <v>21.56892293559522</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.755570957512671</v>
+        <v>10.01505876384702</v>
       </c>
       <c r="M13">
-        <v>14.07087845739196</v>
+        <v>14.81856999356541</v>
       </c>
       <c r="N13">
-        <v>11.6832320315674</v>
+        <v>17.66259920177747</v>
       </c>
       <c r="O13">
-        <v>14.99866523271488</v>
+        <v>21.53398398415498</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.68858516805867</v>
+        <v>15.95830131166606</v>
       </c>
       <c r="C14">
-        <v>13.73138976118751</v>
+        <v>10.72921247595586</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.82728101977094</v>
+        <v>12.03567507164959</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.056114576429165</v>
+        <v>3.623630446361948</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.59956613481123</v>
+        <v>21.58591914709495</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.733630390464193</v>
+        <v>10.01474880479718</v>
       </c>
       <c r="M14">
-        <v>13.95192404399548</v>
+        <v>14.79743167016978</v>
       </c>
       <c r="N14">
-        <v>11.70546376798562</v>
+        <v>17.67028854161151</v>
       </c>
       <c r="O14">
-        <v>14.95517511571542</v>
+        <v>21.54176376547868</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.55880291897713</v>
+        <v>15.90585942013227</v>
       </c>
       <c r="C15">
-        <v>13.67511624920124</v>
+        <v>10.70590721252173</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.836675080547673</v>
+        <v>12.0396009055577</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.056703718146302</v>
+        <v>3.623832518930951</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.61079607031529</v>
+        <v>21.59642061442187</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.720227301123289</v>
+        <v>10.01458589391311</v>
       </c>
       <c r="M15">
-        <v>13.87860700732381</v>
+        <v>14.78450487407803</v>
       </c>
       <c r="N15">
-        <v>11.71916257545493</v>
+        <v>17.67503348699706</v>
       </c>
       <c r="O15">
-        <v>14.92890154800164</v>
+        <v>21.5466379431458</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.80201289782146</v>
+        <v>15.60226595485087</v>
       </c>
       <c r="C16">
-        <v>13.34832483831678</v>
+        <v>10.57102583926247</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.891282790568249</v>
+        <v>12.06248612133669</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.060101576965327</v>
+        <v>3.625008574398471</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.68068683404752</v>
+        <v>21.65799071814152</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.643983803988542</v>
+        <v>10.01406610065742</v>
       </c>
       <c r="M16">
-        <v>13.45147471102189</v>
+        <v>14.71076397869897</v>
       </c>
       <c r="N16">
-        <v>11.79889415697722</v>
+        <v>17.70276183668544</v>
       </c>
       <c r="O16">
-        <v>14.78388223720943</v>
+        <v>21.57623569293862</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.32603525756997</v>
+        <v>15.41336573799128</v>
       </c>
       <c r="C17">
-        <v>13.14402743991414</v>
+        <v>10.48712028364903</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.92546838406021</v>
+        <v>12.07687206622165</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.062206042532619</v>
+        <v>3.625746196660614</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.7283268287327</v>
+        <v>21.69700137444332</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.597725641208882</v>
+        <v>10.01411723451915</v>
       </c>
       <c r="M17">
-        <v>13.18318877864638</v>
+        <v>14.66584349407851</v>
       </c>
       <c r="N17">
-        <v>11.84888740134131</v>
+        <v>17.72025198097839</v>
       </c>
       <c r="O17">
-        <v>14.69980049731184</v>
+        <v>21.5958767329536</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.04793906786679</v>
+        <v>15.3037742311453</v>
       </c>
       <c r="C18">
-        <v>13.02512777479991</v>
+        <v>10.43844387795491</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.9453809921158</v>
+        <v>12.08527406569697</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.063424054783285</v>
+        <v>3.626176406864488</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.7574105569813</v>
+        <v>21.71989422644118</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.571312888550581</v>
+        <v>10.01428292328083</v>
       </c>
       <c r="M18">
-        <v>13.02657043559351</v>
+        <v>14.6401293503551</v>
       </c>
       <c r="N18">
-        <v>11.87803306638973</v>
+        <v>17.73048835268635</v>
       </c>
       <c r="O18">
-        <v>14.6532068606338</v>
+        <v>21.60771793977738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.9530352939882</v>
+        <v>15.26651022956033</v>
       </c>
       <c r="C19">
-        <v>12.98463228584794</v>
+        <v>10.42189240441898</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.952165812536036</v>
+        <v>12.08814077091071</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.063837776179395</v>
+        <v>3.626323091812088</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.76754041990064</v>
+        <v>21.7277234431188</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.562403691759076</v>
+        <v>10.01436245603623</v>
       </c>
       <c r="M19">
-        <v>12.97314505470998</v>
+        <v>14.63144469821923</v>
       </c>
       <c r="N19">
-        <v>11.88796785774034</v>
+        <v>17.73398454750336</v>
       </c>
       <c r="O19">
-        <v>14.63773208277325</v>
+        <v>21.61182053010901</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.37715115637823</v>
+        <v>15.43357269631086</v>
       </c>
       <c r="C20">
-        <v>13.16591971066709</v>
+        <v>10.49609547810674</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.921803356764149</v>
+        <v>12.07532745802257</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.061981239321599</v>
+        <v>3.625667060093865</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.72307982275166</v>
+        <v>21.69280152583516</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.602629955836615</v>
+        <v>10.01409769358554</v>
       </c>
       <c r="M20">
-        <v>13.21198688311353</v>
+        <v>14.67061277666703</v>
       </c>
       <c r="N20">
-        <v>11.8435249458534</v>
+        <v>17.7183718627127</v>
       </c>
       <c r="O20">
-        <v>14.70856754913569</v>
+        <v>21.59372956307567</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.7505890701207</v>
+        <v>15.98339317361105</v>
       </c>
       <c r="C21">
-        <v>13.75829787167117</v>
+        <v>10.74036414124368</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.822790083818051</v>
+        <v>12.03379938105297</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.055832442618223</v>
+        <v>3.623533866027643</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.59428153278766</v>
+        <v>21.58090802279224</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.74006735922917</v>
+        <v>10.01483423316107</v>
       </c>
       <c r="M21">
-        <v>13.98695840017719</v>
+        <v>14.80363615972606</v>
       </c>
       <c r="N21">
-        <v>11.69891680182565</v>
+        <v>17.66802270274002</v>
       </c>
       <c r="O21">
-        <v>14.96787293961965</v>
+        <v>21.53945596802882</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.61016705559049</v>
+        <v>16.3336413994495</v>
       </c>
       <c r="C22">
-        <v>14.13283191545881</v>
+        <v>10.89609033838594</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.760349177381167</v>
+        <v>12.00779011298101</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.051876269254186</v>
+        <v>3.622192378248093</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.52656727737465</v>
+        <v>21.51184160534117</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.831520448242852</v>
+        <v>10.01652255755479</v>
       </c>
       <c r="M22">
-        <v>14.47310099018675</v>
+        <v>14.89153341989194</v>
       </c>
       <c r="N22">
-        <v>11.60802541908478</v>
+        <v>17.63668382997196</v>
       </c>
       <c r="O22">
-        <v>15.15362849300974</v>
+        <v>21.50885345651115</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.15485122218157</v>
+        <v>16.14757133607752</v>
       </c>
       <c r="C23">
-        <v>13.93409908117846</v>
+        <v>10.81334459471037</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.793465032971548</v>
+        <v>12.02156840633536</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.05398229720098</v>
+        <v>3.622903549982071</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.56112736752893</v>
+        <v>21.548331386929</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.782565566375285</v>
+        <v>10.01551136624391</v>
       </c>
       <c r="M23">
-        <v>14.2154887332029</v>
+        <v>14.8445398833629</v>
       </c>
       <c r="N23">
-        <v>11.65619761654922</v>
+        <v>17.65326679148329</v>
       </c>
       <c r="O23">
-        <v>15.05297278466604</v>
+        <v>21.52474010188327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.35405552553518</v>
+        <v>15.42444020666517</v>
       </c>
       <c r="C24">
-        <v>13.15602671755028</v>
+        <v>10.49203915454476</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.923459509793799</v>
+        <v>12.07602536627348</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.062082847484923</v>
+        <v>3.625702818602256</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.7254467311705</v>
+        <v>21.69469882872176</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.600412148222006</v>
+        <v>10.01410610344007</v>
       </c>
       <c r="M24">
-        <v>13.1989746666153</v>
+        <v>14.66845623598441</v>
       </c>
       <c r="N24">
-        <v>11.84594805543742</v>
+        <v>17.71922130014834</v>
       </c>
       <c r="O24">
-        <v>14.70459853260981</v>
+        <v>21.5946985877498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.24592533768372</v>
+        <v>14.60898351234407</v>
       </c>
       <c r="C25">
-        <v>12.26371348509566</v>
+        <v>10.12969575777674</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.073218475885856</v>
+        <v>12.13964664334913</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.071112983666185</v>
+        <v>3.628949929110067</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.96625140652881</v>
+        <v>21.8699678135618</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.411395538159802</v>
+        <v>10.017803454597</v>
       </c>
       <c r="M25">
-        <v>12.08347865563166</v>
+        <v>14.48329866559744</v>
       </c>
       <c r="N25">
-        <v>12.06550908433698</v>
+        <v>17.79711499821067</v>
       </c>
       <c r="O25">
-        <v>14.39599587521296</v>
+        <v>21.6909500827273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.98254127752276</v>
+        <v>18.54845550106777</v>
       </c>
       <c r="C2">
-        <v>9.850571624199638</v>
+        <v>11.56279050294316</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.19072082085392</v>
+        <v>7.191520647657621</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.631538631868254</v>
+        <v>2.078039578938901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.01393554855276</v>
+        <v>13.19094072871257</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.02503709274763</v>
+        <v>6.279132522150804</v>
       </c>
       <c r="M2">
-        <v>14.35175561457324</v>
+        <v>11.35811521651205</v>
       </c>
       <c r="N2">
-        <v>17.86030925221476</v>
+        <v>12.23938810975594</v>
       </c>
       <c r="O2">
-        <v>21.77956766534952</v>
+        <v>14.22294180191128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.54443789954035</v>
+        <v>17.30610291179637</v>
       </c>
       <c r="C3">
-        <v>9.65440839314342</v>
+        <v>11.06164250730768</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.22798948911169</v>
+        <v>7.276642030627138</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.633417501913303</v>
+        <v>2.082919199486952</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.12079238304468</v>
+        <v>13.36945578599755</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.03276545845033</v>
+        <v>6.194048611188443</v>
       </c>
       <c r="M3">
-        <v>14.26592772848859</v>
+        <v>10.84608652730638</v>
       </c>
       <c r="N3">
-        <v>17.90679865464352</v>
+        <v>12.36460780554163</v>
       </c>
       <c r="O3">
-        <v>21.85062232810751</v>
+        <v>14.13732396304412</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.26978232397225</v>
+        <v>16.49749996223263</v>
       </c>
       <c r="C4">
-        <v>9.530766744907659</v>
+        <v>10.74161837727319</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.25218772206988</v>
+        <v>7.331329526206541</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.634632882231919</v>
+        <v>2.086010503836452</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.19097896259568</v>
+        <v>13.49100341947076</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.03890817888998</v>
+        <v>6.144127742618273</v>
       </c>
       <c r="M4">
-        <v>14.21497488706972</v>
+        <v>10.52260612508584</v>
       </c>
       <c r="N4">
-        <v>17.93715574901138</v>
+        <v>12.44506620097819</v>
       </c>
       <c r="O4">
-        <v>21.89964870356809</v>
+        <v>14.0995761022602</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.15660507975945</v>
+        <v>16.15641106560311</v>
       </c>
       <c r="C5">
-        <v>9.479619075653263</v>
+        <v>10.60821280336287</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.26238014655682</v>
+        <v>7.354221946642013</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.635143734427384</v>
+        <v>2.087294693931389</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.2207303309112</v>
+        <v>13.54339739918255</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.0417633183369</v>
+        <v>6.124379002492722</v>
       </c>
       <c r="M5">
-        <v>14.19466631171338</v>
+        <v>10.38867471234952</v>
       </c>
       <c r="N5">
-        <v>17.94998311483081</v>
+        <v>12.47874302934396</v>
       </c>
       <c r="O5">
-        <v>21.92098084310432</v>
+        <v>14.08779413851178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.1377416380488</v>
+        <v>16.09907253511621</v>
       </c>
       <c r="C6">
-        <v>9.471081220379739</v>
+        <v>10.58588351728295</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.26409263166539</v>
+        <v>7.358059804364755</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.635229503146026</v>
+        <v>2.087509424759574</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.22573994015199</v>
+        <v>13.55226635120531</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.04225868177832</v>
+        <v>6.121135930662965</v>
       </c>
       <c r="M6">
-        <v>14.19132203497025</v>
+        <v>10.36631367240254</v>
       </c>
       <c r="N6">
-        <v>17.95214069232513</v>
+        <v>12.48438851333221</v>
       </c>
       <c r="O6">
-        <v>21.92460465554918</v>
+        <v>14.08605137247791</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.26826081468773</v>
+        <v>16.49294687241503</v>
       </c>
       <c r="C7">
-        <v>9.530079981860498</v>
+        <v>10.73983119183205</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.25232383764402</v>
+        <v>7.331635807216558</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.63463970863678</v>
+        <v>2.086027723168446</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.19137554577798</v>
+        <v>13.49169861129546</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.03894525870098</v>
+        <v>6.143858984099238</v>
       </c>
       <c r="M7">
-        <v>14.2146991349372</v>
+        <v>10.52080817355673</v>
       </c>
       <c r="N7">
-        <v>17.93732689343958</v>
+        <v>12.4455167885472</v>
       </c>
       <c r="O7">
-        <v>21.89993092146603</v>
+        <v>14.09940280066382</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.83275551104719</v>
+        <v>18.12955934114164</v>
       </c>
       <c r="C8">
-        <v>9.783622040489554</v>
+        <v>11.39260827883004</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.20329855676654</v>
+        <v>7.220366148576507</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.632173679822512</v>
+        <v>2.079702634368925</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.04982946705534</v>
+        <v>13.24992783807261</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.02741212231032</v>
+        <v>6.249320693933878</v>
       </c>
       <c r="M8">
-        <v>14.32180966824151</v>
+        <v>11.18355271673878</v>
       </c>
       <c r="N8">
-        <v>17.87596314532059</v>
+        <v>12.28181647974547</v>
       </c>
       <c r="O8">
-        <v>21.802944492379</v>
+        <v>14.19027092941821</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88803830808115</v>
+        <v>20.97843554175542</v>
       </c>
       <c r="C9">
-        <v>10.25375427240892</v>
+        <v>12.57124975691301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.11756078185608</v>
+        <v>7.021513696606616</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.62782553665321</v>
+        <v>2.068029708771036</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.80860841866458</v>
+        <v>12.87730880227735</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.01585895465579</v>
+        <v>6.474025865634283</v>
       </c>
       <c r="M9">
-        <v>14.54497074970486</v>
+        <v>12.42518735794812</v>
       </c>
       <c r="N9">
-        <v>17.76997133928864</v>
+        <v>11.98961612719984</v>
       </c>
       <c r="O9">
-        <v>21.65576134982656</v>
+        <v>14.49127447924821</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.62369069832963</v>
+        <v>22.85574063537768</v>
       </c>
       <c r="C10">
-        <v>10.58054290847376</v>
+        <v>13.37144696119864</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.06086185793745</v>
+        <v>6.887415986180486</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.624925211696802</v>
+        <v>2.05986245309157</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.65360101590003</v>
+        <v>12.67548366826649</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.01407871058138</v>
+        <v>6.649288100514916</v>
       </c>
       <c r="M10">
-        <v>14.71590591531043</v>
+        <v>13.48177598410968</v>
       </c>
       <c r="N10">
-        <v>17.70078999062576</v>
+        <v>11.79324298535912</v>
       </c>
       <c r="O10">
-        <v>21.57406833397363</v>
+        <v>14.79371806750789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94828492514819</v>
+        <v>23.66381720898415</v>
       </c>
       <c r="C11">
-        <v>10.72476100525097</v>
+        <v>13.72064528784066</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.03642431180536</v>
+        <v>6.829074440584836</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.623669019036333</v>
+        <v>2.056227156002417</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.58792196459065</v>
+        <v>12.60169171643817</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.0147160522342</v>
+        <v>6.731065157434986</v>
       </c>
       <c r="M11">
-        <v>14.79495841089427</v>
+        <v>13.93793053192145</v>
       </c>
       <c r="N11">
-        <v>17.67119384385566</v>
+        <v>11.70807859475182</v>
       </c>
       <c r="O11">
-        <v>21.54268940383227</v>
+        <v>14.95012917881221</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06964907397194</v>
+        <v>23.96328561279641</v>
       </c>
       <c r="C12">
-        <v>10.7787034027041</v>
+        <v>13.85071554651425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.02736455681903</v>
+        <v>6.807370591199257</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.623202367174917</v>
+        <v>2.054861321438954</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.56374756406458</v>
+        <v>12.57655424416768</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01516455393859</v>
+        <v>6.762313005077027</v>
       </c>
       <c r="M12">
-        <v>14.82505997193758</v>
+        <v>14.10717297465469</v>
       </c>
       <c r="N12">
-        <v>17.66025535200775</v>
+        <v>11.67644759633038</v>
       </c>
       <c r="O12">
-        <v>21.53164189224698</v>
+        <v>15.01214711424413</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.04358175682463</v>
+        <v>23.89907913126159</v>
       </c>
       <c r="C13">
-        <v>10.76711621142754</v>
+        <v>13.82279923437194</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.02930710964843</v>
+        <v>6.812027500068401</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.623302467598631</v>
+        <v>2.055155011398589</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.56892293559522</v>
+        <v>12.58183971063063</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01505876384702</v>
+        <v>6.755570957512651</v>
       </c>
       <c r="M13">
-        <v>14.81856999356541</v>
+        <v>14.07087845739195</v>
       </c>
       <c r="N13">
-        <v>17.66259920177747</v>
+        <v>11.68323203156752</v>
       </c>
       <c r="O13">
-        <v>21.53398398415498</v>
+        <v>14.99866523271502</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.95830131166606</v>
+        <v>23.68858516805866</v>
       </c>
       <c r="C14">
-        <v>10.72921247595586</v>
+        <v>13.73138976118765</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.03567507164959</v>
+        <v>6.827281019771071</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.623630446361948</v>
+        <v>2.056114576429032</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.58591914709495</v>
+        <v>12.59956613481136</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.01474880479718</v>
+        <v>6.733630390464164</v>
       </c>
       <c r="M14">
-        <v>14.79743167016978</v>
+        <v>13.95192404399545</v>
       </c>
       <c r="N14">
-        <v>17.67028854161151</v>
+        <v>11.7054637679857</v>
       </c>
       <c r="O14">
-        <v>21.54176376547868</v>
+        <v>14.95517511571551</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.90585942013227</v>
+        <v>23.55880291897713</v>
       </c>
       <c r="C15">
-        <v>10.70590721252173</v>
+        <v>13.67511624920113</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.0396009055577</v>
+        <v>6.836675080547742</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.623832518930951</v>
+        <v>2.056703718146704</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.59642061442187</v>
+        <v>12.61079607031542</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.01458589391311</v>
+        <v>6.720227301123366</v>
       </c>
       <c r="M15">
-        <v>14.78450487407803</v>
+        <v>13.87860700732379</v>
       </c>
       <c r="N15">
-        <v>17.67503348699706</v>
+        <v>11.71916257545498</v>
       </c>
       <c r="O15">
-        <v>21.5466379431458</v>
+        <v>14.92890154800179</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60226595485087</v>
+        <v>22.80201289782146</v>
       </c>
       <c r="C16">
-        <v>10.57102583926247</v>
+        <v>13.34832483831694</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.06248612133669</v>
+        <v>6.891282790568375</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.625008574398471</v>
+        <v>2.06010157696546</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.65799071814152</v>
+        <v>12.68068683404764</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.01406610065742</v>
+        <v>6.643983803988592</v>
       </c>
       <c r="M16">
-        <v>14.71076397869897</v>
+        <v>13.45147471102188</v>
       </c>
       <c r="N16">
-        <v>17.70276183668544</v>
+        <v>11.79889415697737</v>
       </c>
       <c r="O16">
-        <v>21.57623569293862</v>
+        <v>14.78388223720953</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.41336573799128</v>
+        <v>22.32603525756999</v>
       </c>
       <c r="C17">
-        <v>10.48712028364903</v>
+        <v>13.14402743991407</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.07687206622165</v>
+        <v>6.92546838406021</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.625746196660614</v>
+        <v>2.062206042532619</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.69700137444332</v>
+        <v>12.72832682873259</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.01411723451915</v>
+        <v>6.597725641208905</v>
       </c>
       <c r="M17">
-        <v>14.66584349407851</v>
+        <v>13.18318877864638</v>
       </c>
       <c r="N17">
-        <v>17.72025198097839</v>
+        <v>11.84888740134128</v>
       </c>
       <c r="O17">
-        <v>21.5958767329536</v>
+        <v>14.69980049731177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.3037742311453</v>
+        <v>22.04793906786686</v>
       </c>
       <c r="C18">
-        <v>10.43844387795491</v>
+        <v>13.02512777479995</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.08527406569697</v>
+        <v>6.945380992115803</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.626176406864488</v>
+        <v>2.063424054783284</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.71989422644118</v>
+        <v>12.75741055698127</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.01428292328083</v>
+        <v>6.571312888550588</v>
       </c>
       <c r="M18">
-        <v>14.6401293503551</v>
+        <v>13.02657043559353</v>
       </c>
       <c r="N18">
-        <v>17.73048835268635</v>
+        <v>11.87803306638972</v>
       </c>
       <c r="O18">
-        <v>21.60771793977738</v>
+        <v>14.65320686063383</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.26651022956033</v>
+        <v>21.95303529398823</v>
       </c>
       <c r="C19">
-        <v>10.42189240441898</v>
+        <v>12.98463228584784</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.08814077091071</v>
+        <v>6.952165812536039</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.626323091812088</v>
+        <v>2.063837776179528</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.7277234431188</v>
+        <v>12.76754041990067</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01436245603623</v>
+        <v>6.562403691759078</v>
       </c>
       <c r="M19">
-        <v>14.63144469821923</v>
+        <v>12.97314505470998</v>
       </c>
       <c r="N19">
-        <v>17.73398454750336</v>
+        <v>11.88796785774036</v>
       </c>
       <c r="O19">
-        <v>21.61182053010901</v>
+        <v>14.6377320827733</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.43357269631086</v>
+        <v>22.37715115637822</v>
       </c>
       <c r="C20">
-        <v>10.49609547810674</v>
+        <v>13.16591971066706</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.07532745802257</v>
+        <v>6.921803356764085</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.625667060093865</v>
+        <v>2.061981239321599</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.69280152583516</v>
+        <v>12.72307982275175</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.01409769358554</v>
+        <v>6.602629955836589</v>
       </c>
       <c r="M20">
-        <v>14.67061277666703</v>
+        <v>13.21198688311353</v>
       </c>
       <c r="N20">
-        <v>17.7183718627127</v>
+        <v>11.84352494585343</v>
       </c>
       <c r="O20">
-        <v>21.59372956307567</v>
+        <v>14.70856754913575</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.98339317361105</v>
+        <v>23.75058907012075</v>
       </c>
       <c r="C21">
-        <v>10.74036414124368</v>
+        <v>13.75829787167105</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.03379938105297</v>
+        <v>6.822790083817795</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.623533866027643</v>
+        <v>2.055832442617956</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.58090802279224</v>
+        <v>12.59428153278753</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01483423316107</v>
+        <v>6.740067359229128</v>
       </c>
       <c r="M21">
-        <v>14.80363615972606</v>
+        <v>13.98695840017725</v>
       </c>
       <c r="N21">
-        <v>17.66802270274002</v>
+        <v>11.69891680182562</v>
       </c>
       <c r="O21">
-        <v>21.53945596802882</v>
+        <v>14.9678729396196</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.3336413994495</v>
+        <v>24.61016705559042</v>
       </c>
       <c r="C22">
-        <v>10.89609033838594</v>
+        <v>14.13283191545887</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.00779011298101</v>
+        <v>6.760349177381107</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.622192378248093</v>
+        <v>2.051876269254186</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.51184160534117</v>
+        <v>12.52656727737481</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.01652255755479</v>
+        <v>6.831520448242834</v>
       </c>
       <c r="M22">
-        <v>14.89153341989194</v>
+        <v>14.47310099018673</v>
       </c>
       <c r="N22">
-        <v>17.63668382997196</v>
+        <v>11.60802541908483</v>
       </c>
       <c r="O22">
-        <v>21.50885345651115</v>
+        <v>15.15362849300985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14757133607752</v>
+        <v>24.15485122218159</v>
       </c>
       <c r="C23">
-        <v>10.81334459471037</v>
+        <v>13.93409908117841</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.02156840633536</v>
+        <v>6.793465032971485</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.622903549982071</v>
+        <v>2.053982297200982</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.548331386929</v>
+        <v>12.56112736752908</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.01551136624391</v>
+        <v>6.782565566375277</v>
       </c>
       <c r="M23">
-        <v>14.8445398833629</v>
+        <v>14.21548873320288</v>
       </c>
       <c r="N23">
-        <v>17.65326679148329</v>
+        <v>11.65619761654932</v>
       </c>
       <c r="O23">
-        <v>21.52474010188327</v>
+        <v>15.05297278466614</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42444020666517</v>
+        <v>22.35405552553517</v>
       </c>
       <c r="C24">
-        <v>10.49203915454476</v>
+        <v>13.15602671755048</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.07602536627348</v>
+        <v>6.923459509793865</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.625702818602256</v>
+        <v>2.062082847484922</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.69469882872176</v>
+        <v>12.72544673117046</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.01410610344007</v>
+        <v>6.600412148221972</v>
       </c>
       <c r="M24">
-        <v>14.66845623598441</v>
+        <v>13.19897466661529</v>
       </c>
       <c r="N24">
-        <v>17.71922130014834</v>
+        <v>11.84594805543736</v>
       </c>
       <c r="O24">
-        <v>21.5946985877498</v>
+        <v>14.70459853260974</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.60898351234407</v>
+        <v>20.24592533768375</v>
       </c>
       <c r="C25">
-        <v>10.12969575777674</v>
+        <v>12.26371348509565</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.13964664334913</v>
+        <v>7.073218475885793</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.628949929110067</v>
+        <v>2.071112983666053</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.8699678135618</v>
+        <v>12.96625140652883</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.017803454597</v>
+        <v>6.411395538159753</v>
       </c>
       <c r="M25">
-        <v>14.48329866559744</v>
+        <v>12.08347865563164</v>
       </c>
       <c r="N25">
-        <v>17.79711499821067</v>
+        <v>12.06550908433701</v>
       </c>
       <c r="O25">
-        <v>21.6909500827273</v>
+        <v>14.39599587521298</v>
       </c>
     </row>
   </sheetData>
